--- a/excel_with_subclasses/basic/district.xlsx
+++ b/excel_with_subclasses/basic/district.xlsx
@@ -385,7 +385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:C232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,46 +719,46 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q13439062</t>
+          <t>Q13388283</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Protected city and villages in Flevoland</t>
+          <t>districts of Gilgit-Baltistan</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q15243227_Q15243227</t>
+          <t>Q2379075_округа Пакистана</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q13582281</t>
+          <t>Q13439062</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>район децентрализованной коммуны Италии</t>
+          <t>Protected city and villages in Flevoland</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q15243227_Q15243227</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q137773</t>
+          <t>Q13582281</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>автономный внутригородской район Японии</t>
+          <t>район децентрализованной коммуны Италии</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -770,97 +770,97 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q1410029</t>
+          <t>Q137773</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>list of the municipi of Genoa</t>
+          <t>автономный внутригородской район Японии</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q14242187</t>
+          <t>Q1410029</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>район Нижнего Новгорода</t>
+          <t>list of the municipi of Genoa</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Q15195406_район города в России</t>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q1434401</t>
+          <t>Q14242187</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>дзельница</t>
+          <t>район Нижнего Новгорода</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q15195406_район города в России</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q14942893</t>
+          <t>Q1434401</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>округ Папуа — Новой Гвинеи</t>
+          <t>дзельница</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q15063368</t>
+          <t>Q14942893</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>federal electoral district in Manitoba</t>
+          <t>округ Папуа — Новой Гвинеи</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q15063373</t>
+          <t>Q15063368</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>federal electoral district in New Brunswick</t>
+          <t>federal electoral district in Manitoba</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -872,12 +872,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q15063379</t>
+          <t>Q15063373</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>federal electoral district in Newfoundland and Labrador</t>
+          <t>federal electoral district in New Brunswick</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -889,12 +889,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q15063384</t>
+          <t>Q15063379</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>federal electoral district in Nova Scotia</t>
+          <t>federal electoral district in Newfoundland and Labrador</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -906,12 +906,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q15063391</t>
+          <t>Q15063384</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>federal electoral district in Prince Edward Island</t>
+          <t>federal electoral district in Nova Scotia</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -923,12 +923,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q15063395</t>
+          <t>Q15063391</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>federal electoral district in Saskatchewan</t>
+          <t>federal electoral district in Prince Edward Island</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -940,80 +940,80 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q15071808</t>
+          <t>Q15063395</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>сельсовет Белоруссии</t>
+          <t>federal electoral district in Saskatchewan</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Q27002_сельсовет в СССР</t>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q15079751</t>
+          <t>Q15071808</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>район Амстердама</t>
+          <t>сельсовет Белоруссии</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Q2779745_городской округ в Нидерландах</t>
+          <t>Q27002_сельсовет в СССР</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Q15195406</t>
+          <t>Q15079751</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>район города в России</t>
+          <t>район Амстердама</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q2779745_городской округ в Нидерландах</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Q15207445</t>
+          <t>Q15195406</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>fur-trading district</t>
+          <t>район города в России</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Q15243209</t>
+          <t>Q15207445</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>исторический район</t>
+          <t>fur-trading district</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1025,12 +1025,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Q15618465</t>
+          <t>Q15243209</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>округ Американского Самоа</t>
+          <t>исторический район</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1042,12 +1042,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Q15630906</t>
+          <t>Q15618465</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>сельский район</t>
+          <t>округ Американского Самоа</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1059,114 +1059,114 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Q15632133</t>
+          <t>Q15630906</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>city district of Cologne</t>
+          <t>сельский район</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Q15633191</t>
+          <t>Q15632133</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>distrito</t>
+          <t>city district of Cologne</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q2740635_городской район в Германии</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q15634846</t>
+          <t>Q15633191</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>район Сеула</t>
+          <t>distrito</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Q15901936_гу</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Q15634883</t>
+          <t>Q15634846</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>округ Манилы</t>
+          <t>район Сеула</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q15901936_гу</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Q15644465</t>
+          <t>Q15634883</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>district of the canton of Zürich</t>
+          <t>округ Манилы</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Q15726209</t>
+          <t>Q15644465</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>school district in the United States</t>
+          <t>district of the canton of Zürich</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Q15726214</t>
+          <t>Q15726209</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>школьный округ Канады</t>
+          <t>school district in the United States</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1178,131 +1178,131 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Q15727673</t>
+          <t>Q15726214</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>городской округ Ганновера</t>
+          <t>школьный округ Канады</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Q1584957</t>
+          <t>Q15727673</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Borough of Palermo</t>
+          <t>городской округ Ганновера</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
+          <t>Q2740635_городской район в Германии</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Q15873063</t>
+          <t>Q1584957</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Protected towns and villages in Limburg</t>
+          <t>Borough of Palermo</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Q2584998_охраняемый район в Нидерландах,Q15243227_Q15243227</t>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Q15901936</t>
+          <t>Q15873063</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>гу</t>
+          <t>Protected towns and villages in Limburg</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q2584998_охраняемый район в Нидерландах,Q15243227_Q15243227</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Q15921300</t>
+          <t>Q15901936</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>sector of Bucharest</t>
+          <t>гу</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Q15982377</t>
+          <t>Q15921300</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>сельсовет в России</t>
+          <t>sector of Bucharest</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Q27002_сельсовет в СССР</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Q16141600</t>
+          <t>Q15982377</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Группы традиционных зданий</t>
+          <t>сельсовет в России</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Q15243209_исторический район</t>
+          <t>Q27002_сельсовет в СССР</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Q1620797</t>
+          <t>Q16141600</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>исторический район в США</t>
+          <t>Группы традиционных зданий</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1314,97 +1314,97 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Q1631226</t>
+          <t>Q1620797</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>поселковый совет</t>
+          <t>исторический район в США</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Q15630906_сельский район</t>
+          <t>Q15243209_исторический район</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Q1649296</t>
+          <t>Q1631226</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>округ Суринама</t>
+          <t>поселковый совет</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q15630906_сельский район</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Q16678127</t>
+          <t>Q16319182</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>administrative territorial entity of Anguilla</t>
+          <t>districts of Khyber Pakhtunkhwa</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q2379075_округа Пакистана</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Q16751551</t>
+          <t>Q1649296</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>borough of Brescia</t>
+          <t>округ Суринама</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Q16751788</t>
+          <t>Q16678127</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>circoscrizione of Vicenza</t>
+          <t>administrative territorial entity of Anguilla</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Q16761595</t>
+          <t>Q16751551</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>circoscrizione of Treviso</t>
+          <t>borough of Brescia</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1416,29 +1416,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Q16997861</t>
+          <t>Q16751788</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>joint technological education district</t>
+          <t>circoscrizione of Vicenza</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Q17137839</t>
+          <t>Q16761595</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>circoscrizione of Verona</t>
+          <t>circoscrizione of Treviso</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1450,267 +1450,267 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Q17202187</t>
+          <t>Q16997861</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>канадский федеральный избирательный округ</t>
+          <t>joint technological education district</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Q17276572</t>
+          <t>Q17137839</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>избирательный округ кантон Санкт-Галлен</t>
+          <t>circoscrizione of Verona</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Q17277366</t>
+          <t>Q17202187</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>former district of the canton of Vaud</t>
+          <t>канадский федеральный избирательный округ</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Q17278014_бывший округ Швейцарии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Q17277998</t>
+          <t>Q17276572</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>district of the canton of Schaffhausen</t>
+          <t>избирательный округ кантон Санкт-Галлен</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Q17278014_бывший округ Швейцарии</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Q17278014</t>
+          <t>Q17277366</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>бывший округ Швейцарии</t>
+          <t>former district of the canton of Vaud</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q17278014_бывший округ Швейцарии</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Q17278423</t>
+          <t>Q17277998</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>district of Bremen</t>
+          <t>district of the canton of Schaffhausen</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
+          <t>Q17278014_бывший округ Швейцарии</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Q17312348</t>
+          <t>Q17278014</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>former subdistrict of the canton of Ticino</t>
+          <t>бывший округ Швейцарии</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Q17278014_бывший округ Швейцарии</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Q17361228</t>
+          <t>Q17278423</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>forestry district</t>
+          <t>district of Bremen</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Q1065118_район городского подчинения КНР</t>
+          <t>Q2740635_городской район в Германии</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Q17364572</t>
+          <t>Q17312348</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>округ Северной Ирландии</t>
+          <t>former subdistrict of the canton of Ticino</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q17278014_бывший округ Швейцарии</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Q17377631</t>
+          <t>Q17361228</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>district of Mexico</t>
+          <t>forestry district</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Q15633191_distrito</t>
+          <t>Q1065118_район городского подчинения КНР</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Q17496379</t>
+          <t>Q17364572</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>район города в Австрии</t>
+          <t>округ Северной Ирландии</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Q1754946</t>
+          <t>Q17377631</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>сельский район</t>
+          <t>district of Mexico</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Q15630906_сельский район</t>
+          <t>Q15633191_distrito</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Q17601336</t>
+          <t>Q17496379</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>district of the United Kingdom</t>
+          <t>район города в Австрии</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Q1808877</t>
+          <t>Q1754946</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>подобщина</t>
+          <t>сельский район</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q15630906_сельский район</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Q1840504</t>
+          <t>Q17601336</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>национальный район</t>
+          <t>district of the United Kingdom</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Q27002_сельсовет в СССР</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Q1852119</t>
+          <t>Q1808877</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>district of Graz</t>
+          <t>подобщина</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1722,131 +1722,131 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Q18545121</t>
+          <t>Q1840504</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>район Пусана</t>
+          <t>национальный район</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Q15901936_гу</t>
+          <t>Q27002_сельсовет в СССР</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Q18545295</t>
+          <t>Q1852119</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>district of Incheon</t>
+          <t>district of Graz</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Q15901936_гу</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Q18559008</t>
+          <t>Q18545121</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>район Сан-Паулу</t>
+          <t>район Пусана</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q15901936_гу</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Q18600372</t>
+          <t>Q18545295</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>borough of Dresden</t>
+          <t>district of Incheon</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
+          <t>Q15901936_гу</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Q193560</t>
+          <t>Q18559008</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>округ Израиля</t>
+          <t>район Сан-Паулу</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Q1964165</t>
+          <t>Q18600372</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>province district in Belgium</t>
+          <t>borough of Dresden</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q2740635_городской район в Германии</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Q1985797</t>
+          <t>Q193560</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>муниципальная единица Греции</t>
+          <t>округ Израиля</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Q1994931</t>
+          <t>Q1964165</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Округа Малайзии</t>
+          <t>province district in Belgium</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1858,12 +1858,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Q205549</t>
+          <t>Q1985797</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Zipserei</t>
+          <t>муниципальная единица Греции</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1875,148 +1875,148 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Q211690</t>
+          <t>Q1994931</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>районы Лондона</t>
+          <t>Округа Малайзии</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Q349084_район Англии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Q21683299</t>
+          <t>Q205549</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>поселковый совет Украины</t>
+          <t>Zipserei</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Q1631226_поселковый совет</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Q216888</t>
+          <t>Q211690</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>округ Люксембурга</t>
+          <t>районы Лондона</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q349084_район Англии</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Q2179958</t>
+          <t>Q21683299</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>район Перу</t>
+          <t>поселковый совет Украины</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт,Q15633191_distrito</t>
+          <t>Q1631226_поселковый совет</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Q21851888</t>
+          <t>Q216888</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>район города в Чехии</t>
+          <t>округ Люксембурга</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Q2249932</t>
+          <t>Q2179958</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>District of Wales</t>
+          <t>район Перу</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Q17601336_district of the United Kingdom</t>
+          <t>Q149621_дистрикт,Q15633191_distrito</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Q2264478</t>
+          <t>Q21851888</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>район Словакии</t>
+          <t>район города в Чехии</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Q22671115</t>
+          <t>Q2249932</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>district of Tonga</t>
+          <t>District of Wales</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q17601336_district of the United Kingdom</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Q22833408</t>
+          <t>Q2264478</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>District of the city of Strasbourg, France</t>
+          <t>район Словакии</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2028,233 +2028,233 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Q2292572</t>
+          <t>Q22671115</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>округ Коста-Рики</t>
+          <t>district of Tonga</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Q15633191_distrito</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Q2301018</t>
+          <t>Q22833408</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Особый район (КНР)</t>
+          <t>District of the city of Strasbourg, France</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Q1065118_район городского подчинения КНР</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Q23013985</t>
+          <t>Q2292572</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>region of Graubünden</t>
+          <t>округ Коста-Рики</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q15633191_distrito</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Q2379075</t>
+          <t>Q2301018</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>округа Пакистана</t>
+          <t>Особый район (КНР)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q1065118_район городского подчинения КНР</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Q23925379</t>
+          <t>Q23013985</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Prefecture of Arrondissement</t>
+          <t>region of Graubünden</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Q247073</t>
+          <t>Q2379075</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>повет</t>
+          <t>округа Пакистана</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Q15630906_сельский район</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Q2527000</t>
+          <t>Q23925379</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>защищаемая территория</t>
+          <t>Prefecture of Arrondissement</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Q15243209_исторический район</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Q253270</t>
+          <t>Q247073</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>borough of Munich</t>
+          <t>повет</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
+          <t>Q15630906_сельский район</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Q2537537</t>
+          <t>Q2527000</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>район Непала</t>
+          <t>защищаемая территория</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q15243209_исторический район</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Q2584998</t>
+          <t>Q253270</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>охраняемый район в Нидерландах</t>
+          <t>borough of Munich</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Q15243209_исторический район</t>
+          <t>Q2740635_городской район в Германии</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Q261023</t>
+          <t>Q2537537</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>районы Вены</t>
+          <t>район Непала</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Q17496379_район города в Австрии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Q2631599</t>
+          <t>Q2584998</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>район Узбекистана</t>
+          <t>охраняемый район в Нидерландах</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q15243209_исторический район</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Q2655841</t>
+          <t>Q261023</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>муниципалитеты Грузии</t>
+          <t>районы Вены</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q17496379_район города в Австрии</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Q26907711</t>
+          <t>Q2631599</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>district of the Australian Capital Territory</t>
+          <t>район Узбекистана</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2266,233 +2266,233 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Q27002</t>
+          <t>Q2655841</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>сельсовет в СССР</t>
+          <t>муниципалитеты Грузии</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Q15630906_сельский район</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Q2740635</t>
+          <t>Q26907711</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>городской район в Германии</t>
+          <t>district of the Australian Capital Territory</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Q2749147</t>
+          <t>Q27002</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Castellany</t>
+          <t>сельсовет в СССР</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q15630906_сельский район</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Q2755753</t>
+          <t>Q2740635</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>район Лондона</t>
+          <t>городской район в Германии</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Q2779745</t>
+          <t>Q2749147</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>городской округ в Нидерландах</t>
+          <t>Castellany</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Q278976</t>
+          <t>Q2755753</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>районы и кварталы Гамбурга</t>
+          <t>район Лондона</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Q2845944</t>
+          <t>Q2779745</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>former arrondissement of Paris</t>
+          <t>городской округ в Нидерландах</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Q679388_Административное деление Парижа,Q702842_муниципальный округ Франции</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Q2864107</t>
+          <t>Q278976</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>административный район кантона Берн</t>
+          <t>районы и кварталы Гамбурга</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q2740635_городской район в Германии</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Q2864207</t>
+          <t>Q2845944</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>constituency of the canton of Lucerne</t>
+          <t>former arrondissement of Paris</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q679388_Административное деление Парижа,Q702842_муниципальный округ Франции</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Q2935973</t>
+          <t>Q2864107</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>phytogeographic district</t>
+          <t>административный район кантона Берн</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Q2986739</t>
+          <t>Q2864207</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>commission scolaire au Québec</t>
+          <t>constituency of the canton of Lucerne</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Q2989468</t>
+          <t>Q2935973</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Communes d'arrondissement of Senegal</t>
+          <t>phytogeographic district</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Q3032103</t>
+          <t>Q2986739</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>districts of Colombia</t>
+          <t>commission scolaire au Québec</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Q15633191_distrito</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Q3032114</t>
+          <t>Q2989468</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>район Мадрида</t>
+          <t>Communes d'arrondissement of Senegal</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2504,46 +2504,46 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Q3032116</t>
+          <t>Q3032103</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>округ кантона Аргау</t>
+          <t>districts of Colombia</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q15633191_distrito</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Q3032119</t>
+          <t>Q3032114</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>district of the canton of Basel-Land</t>
+          <t>район Мадрида</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Q3032122</t>
+          <t>Q3032116</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>округ кантон Фрибур</t>
+          <t>округ кантона Аргау</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2555,29 +2555,29 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Q3032123</t>
+          <t>Q3032119</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>округ кантона Люцерн</t>
+          <t>district of the canton of Basel-Land</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Q17278014_бывший округ Швейцарии</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Q3032124</t>
+          <t>Q3032122</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>district of the canton of Schwyz</t>
+          <t>округ кантон Фрибур</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2589,29 +2589,29 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Q3032126</t>
+          <t>Q3032123</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>district of the canton of Neuchâtel</t>
+          <t>округ кантона Люцерн</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q17278014_бывший округ Швейцарии</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Q3032131</t>
+          <t>Q3032124</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>district of the canton of Solothurn</t>
+          <t>district of the canton of Schwyz</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2623,12 +2623,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Q3032132</t>
+          <t>Q3032126</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>округ кантона Во</t>
+          <t>district of the canton of Neuchâtel</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2640,12 +2640,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Q3032133</t>
+          <t>Q3032131</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>district of Canton Thurgau</t>
+          <t>district of the canton of Solothurn</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2657,12 +2657,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Q3032137</t>
+          <t>Q3032132</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>округ кантона Тичино</t>
+          <t>округ кантона Во</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2674,12 +2674,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Q3032139</t>
+          <t>Q3032133</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>district of the canton of Jura</t>
+          <t>district of Canton Thurgau</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2691,29 +2691,29 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Q30339232</t>
+          <t>Q3032137</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>сектор Кишинёва</t>
+          <t>округ кантона Тичино</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Q3091916</t>
+          <t>Q3032139</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>district of the canton of Graubünden</t>
+          <t>district of the canton of Jura</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2725,148 +2725,148 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Q317669</t>
+          <t>Q30339232</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Список округов Дюссельдорфа</t>
+          <t>сектор Кишинёва</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Q319796</t>
+          <t>Q3091916</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Административное деление Науру</t>
+          <t>district of the canton of Graubünden</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Q3248048</t>
+          <t>Q317669</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>федеральный избирательный округ Канады</t>
+          <t>Список округов Дюссельдорфа</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
+          <t>Q2740635_городской район в Германии</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Q349084</t>
+          <t>Q319796</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>район Англии</t>
+          <t>Административное деление Науру</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Q17601336_district of the United Kingdom</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Q3539870</t>
+          <t>Q3248048</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>округ Уганды</t>
+          <t>федеральный избирательный округ Канады</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Q3556789</t>
+          <t>Q349084</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>округ Мадагаскара</t>
+          <t>район Англии</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q17601336_district of the United Kingdom</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Q3565075</t>
+          <t>Q3539870</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>район города Украины</t>
+          <t>округ Уганды</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Q3569918</t>
+          <t>Q3556789</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>special district of Ethiopia</t>
+          <t>округ Мадагаскара</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Q690840_округ в Эфиопии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Q3624938</t>
+          <t>Q3565075</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>district of Brazil</t>
+          <t>район города Украины</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2878,114 +2878,114 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Q3677930</t>
+          <t>Q3569918</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>quarter of Messina</t>
+          <t>special district of Ethiopia</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
+          <t>Q690840_округ в Эфиопии</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Q3710483</t>
+          <t>Q3624938</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>district of Fiji</t>
+          <t>district of Brazil</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Q3710488</t>
+          <t>Q3677930</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>округ Панамы</t>
+          <t>quarter of Messina</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Q15633191_distrito</t>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Q3777387</t>
+          <t>Q3710483</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>бывший округ в кантоне Берн</t>
+          <t>district of Fiji</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Q17278014_бывший округ Швейцарии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Q3867179</t>
+          <t>Q3710488</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>municipalità of Naples</t>
+          <t>округ Панамы</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
+          <t>Q15633191_distrito</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Q3867183</t>
+          <t>Q3777387</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>муниципалитет Венеции</t>
+          <t>бывший округ в кантоне Берн</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
+          <t>Q17278014_бывший округ Швейцарии</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Q3927244</t>
+          <t>Q3867179</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>boroughs of Bologna</t>
+          <t>municipalità of Naples</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -2997,12 +2997,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Q3927247</t>
+          <t>Q3867183</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>borough of Florence</t>
+          <t>муниципалитет Венеции</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3014,46 +3014,46 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Q398141</t>
+          <t>Q3927244</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>школьный округ</t>
+          <t>boroughs of Bologna</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Q40256562</t>
+          <t>Q3927247</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>внутригородской район</t>
+          <t>borough of Florence</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Q4057728</t>
+          <t>Q398141</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Административное деление Еревана</t>
+          <t>школьный округ</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3065,216 +3065,216 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Q42577368</t>
+          <t>Q40256562</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>intermediate school district of Michigan</t>
+          <t>внутригородской район</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Q15726209_school district in the United States</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Q4259749</t>
+          <t>Q4057728</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Лесной район (КНР)</t>
+          <t>Административное деление Еревана</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Q2301018_Особый район (КНР)</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Q4286337</t>
+          <t>Q42577368</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>район города</t>
+          <t>intermediate school district of Michigan</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q15726209_school district in the United States</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Q4314954</t>
+          <t>Q4259749</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Национальные районы городского подчинения</t>
+          <t>Лесной район (КНР)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Q1065118_район городского подчинения КНР</t>
+          <t>Q2301018_Особый район (КНР)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Q4389092</t>
+          <t>Q4286337</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>район Москвы</t>
+          <t>район города</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Q15195406_район города в России</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Q4414033</t>
+          <t>Q4314954</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>сельский совет Украины</t>
+          <t>Национальные районы городского подчинения</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Q27002_сельсовет в СССР</t>
+          <t>Q1065118_район городского подчинения КНР</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Q46426234</t>
+          <t>Q4389092</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>former district of Japan</t>
+          <t>район Москвы</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Q1122846_уезд Японии</t>
+          <t>Q15195406_район города в России</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Q4664382</t>
+          <t>Q4414033</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Abbott district</t>
+          <t>сельский совет Украины</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q27002_сельсовет в СССР</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Q4711849</t>
+          <t>Q46426234</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>federal electoral district in Alberta</t>
+          <t>former district of Japan</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
+          <t>Q1122846_уезд Японии</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Q475061</t>
+          <t>Q4664382</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ампхе</t>
+          <t>Abbott district</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Q50256</t>
+          <t>Q4711849</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Административное деление Гонконга</t>
+          <t>federal electoral district in Alberta</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Q5034569</t>
+          <t>Q475061</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>район городского подчинения</t>
+          <t>ампхе</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Q1065118_район городского подчинения КНР</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Q505410</t>
+          <t>Q50256</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Congressional district</t>
+          <t>Административное деление Гонконга</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3286,114 +3286,114 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Q505830</t>
+          <t>Q5034569</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>дистрикт Судана</t>
+          <t>район городского подчинения</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q1065118_район городского подчинения КНР</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Q5283507</t>
+          <t>Q505410</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>district of Davao City</t>
+          <t>Congressional district</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Q5283531</t>
+          <t>Q505830</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>район в Пруссии</t>
+          <t>дистрикт Судана</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Q15630906_сельский район</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Q5283558</t>
+          <t>Q5283507</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>district of Zimbabwe</t>
+          <t>district of Davao City</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Q5283559</t>
+          <t>Q5283531</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>районы ДР Конго</t>
+          <t>район в Пруссии</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q15630906_сельский район</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Q5327704</t>
+          <t>Q5283558</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>special ward of Japan</t>
+          <t>district of Zimbabwe</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Q137773_автономный внутригородской район Японии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Q545769</t>
+          <t>Q5283559</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>район в Гане</t>
+          <t>районы ДР Конго</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3405,29 +3405,29 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Q55791821</t>
+          <t>Q5327704</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>district of Somaliland</t>
+          <t>special ward of Japan</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q137773_автономный внутригородской район Японии</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Q56205755</t>
+          <t>Q545769</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>district of Rotuma</t>
+          <t>район в Гане</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3439,12 +3439,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Q56850218</t>
+          <t>Q55791821</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>district of Hawaii County</t>
+          <t>district of Somaliland</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3456,250 +3456,250 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Q5773774</t>
+          <t>Q56205755</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Historic overlay district</t>
+          <t>district of Rotuma</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Q15243209_исторический район</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Q5774261</t>
+          <t>Q56850218</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Historical federal electoral districts of Canada</t>
+          <t>district of Hawaii County</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Q5811429</t>
+          <t>Q5773774</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>distrito in Managua</t>
+          <t>Historic overlay district</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Q15633191_distrito</t>
+          <t>Q15243209_исторический район</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Q585444</t>
+          <t>Q5774261</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>административное деление Праги</t>
+          <t>Historical federal electoral districts of Canada</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Q59136</t>
+          <t>Q5811429</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>район Республики Кипр</t>
+          <t>distrito in Managua</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q15633191_distrito</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Q60299921</t>
+          <t>Q585444</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>administrative district in the canton of Graubünden</t>
+          <t>административное деление Праги</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Q610625</t>
+          <t>Q59136</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Административное деление Милана</t>
+          <t>район Республики Кипр</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Q627253</t>
+          <t>Q60299921</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>working class quarter</t>
+          <t>administrative district in the canton of Graubünden</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Q628993</t>
+          <t>Q610625</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>district of the canton of Valais</t>
+          <t>Административное деление Милана</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Q63040043</t>
+          <t>Q627253</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>school district of the U.S. Department of Defense</t>
+          <t>working class quarter</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Q63342446</t>
+          <t>Q628993</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>District of El Salvador</t>
+          <t>district of the canton of Valais</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Q64636958</t>
+          <t>Q63040043</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>school district of Oregon</t>
+          <t>school district of the U.S. Department of Defense</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Q15726209_school district in the United States</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Q6593031</t>
+          <t>Q63342446</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>федеральный избирательный округ в Онтарио</t>
+          <t>District of El Salvador</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Q6617100</t>
+          <t>Q64636958</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>мудирия в Йемене</t>
+          <t>school district of Oregon</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q15726209_school district in the United States</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Q6619312</t>
+          <t>Q6593031</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>federal electoral district in British Columbia</t>
+          <t>федеральный избирательный округ в Онтарио</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3711,12 +3711,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Q662914</t>
+          <t>Q6617100</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>округ Швейцарии</t>
+          <t>мудирия в Йемене</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3728,29 +3728,29 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Q679388</t>
+          <t>Q6619312</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Административное деление Парижа</t>
+          <t>federal electoral district in British Columbia</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Q702842_муниципальный округ Франции</t>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Q690840</t>
+          <t>Q662914</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>округ в Эфиопии</t>
+          <t>округ Швейцарии</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -3762,216 +3762,216 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Q692561</t>
+          <t>Q679388</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>округ кантона Санкт-Галлен</t>
+          <t>Административное деление Парижа</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Q17278014_бывший округ Швейцарии</t>
+          <t>Q702842_муниципальный округ Франции</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Q7010135</t>
+          <t>Q690840</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>New Mexico's congressional districts</t>
+          <t>округ в Эфиопии</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Q505410_Congressional district</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Q702842</t>
+          <t>Q692561</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>муниципальный округ Франции</t>
+          <t>округ кантона Санкт-Галлен</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q17278014_бывший округ Швейцарии</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Q702869</t>
+          <t>Q7010135</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Административное деление Лиона</t>
+          <t>New Mexico's congressional districts</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Q702842_муниципальный округ Франции</t>
+          <t>Q505410_Congressional district</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Q702875</t>
+          <t>Q702842</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Административное деление Марселя</t>
+          <t>муниципальный округ Франции</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Q702842_муниципальный округ Франции</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Q7048928</t>
+          <t>Q702869</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Non-high school district</t>
+          <t>Административное деление Лиона</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q702842_муниципальный округ Франции</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Q705296</t>
+          <t>Q702875</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>район</t>
+          <t>Административное деление Марселя</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q702842_муниципальный округ Франции</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Q706308</t>
+          <t>Q7048928</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Beimen District</t>
+          <t>Non-high school district</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Q705296_район</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Q7432250</t>
+          <t>Q705296</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>School Districts of Huron County, Ohio</t>
+          <t>район</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Q7438320</t>
+          <t>Q706308</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>scout district</t>
+          <t>Beimen District</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q705296_район</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Q74728036</t>
+          <t>Q7432250</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>административный округ Праги</t>
+          <t>School Districts of Huron County, Ohio</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Q585444_административное деление Праги</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Q75338598</t>
+          <t>Q7438320</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>городская часть Праги</t>
+          <t>scout district</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Q585444_административное деление Праги,Q21851888_район города в Чехии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Q75339006</t>
+          <t>Q74728036</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>городской округ Праги</t>
+          <t>административный округ Праги</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -3983,97 +3983,97 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Q7553685</t>
+          <t>Q75338598</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>район Софии</t>
+          <t>городская часть Праги</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q585444_административное деление Праги,Q21851888_район города в Чехии</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Q765865</t>
+          <t>Q75339006</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>округ Белиза</t>
+          <t>городской округ Праги</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q585444_административное деление Праги</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Q7884983</t>
+          <t>Q7553685</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>unified school district</t>
+          <t>район Софии</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Q7886773</t>
+          <t>Q765865</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>union school district</t>
+          <t>округ Белиза</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Q81268491</t>
+          <t>Q7884983</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>joint vocational school district</t>
+          <t>unified school district</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Q81268680_vocational school district</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Q81268680</t>
+          <t>Q7886773</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>vocational school district</t>
+          <t>union school district</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4085,29 +4085,29 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Q81269968</t>
+          <t>Q81268491</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>city school district</t>
+          <t>joint vocational school district</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q81268680_vocational school district</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Q81270527</t>
+          <t>Q81268680</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>exempted village school district</t>
+          <t>vocational school district</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4119,12 +4119,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Q81271307</t>
+          <t>Q81269968</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>local school district</t>
+          <t>city school district</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4136,63 +4136,63 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Q821435</t>
+          <t>Q81270527</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>округ Берлина</t>
+          <t>exempted village school district</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Q831889</t>
+          <t>Q81271307</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>дзонгхаг</t>
+          <t>local school district</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Q850649</t>
+          <t>Q821435</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Important Preservation Districts for Groups of Traditional Buildings</t>
+          <t>округ Берлина</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Q16141600_Группы традиционных зданий</t>
+          <t>Q2740635_городской район в Германии</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Q854138</t>
+          <t>Q831889</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Bezirksamt</t>
+          <t>дзонгхаг</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4204,100 +4204,134 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Q8561193</t>
+          <t>Q850649</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>district of Valencia</t>
+          <t>Important Preservation Districts for Groups of Traditional Buildings</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
+          <t>Q16141600_Группы традиционных зданий</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Q86732061</t>
+          <t>Q854138</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>School service centre</t>
+          <t>Bezirksamt</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Q917092</t>
+          <t>Q8561193</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>округ Парагвая</t>
+          <t>district of Valencia</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
+          <t>Q4286337_район города</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Q925381</t>
+          <t>Q86732061</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>город на правах повята</t>
+          <t>School service centre</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Q247073_повет</t>
+          <t>Q398141_школьный округ</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Q96180429</t>
+          <t>Q917092</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>city district of Langenhagen</t>
+          <t>округ Парагвая</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
+          <t>Q149621_дистрикт</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
+          <t>Q925381</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>город на правах повята</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Q247073_повет</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Q96180429</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>city district of Langenhagen</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Q2740635_городской район в Германии</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
           <t>Q96739262</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>district of Almería</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>Q4286337_район города</t>
         </is>
